--- a/data/RawData/ObsData/2001-2009/01-06-2005.xlsx
+++ b/data/RawData/ObsData/2001-2009/01-06-2005.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2001-2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F28FF4D-582D-49D3-B556-060818B23331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0A6CFB-46E4-40C6-8716-88F85447D3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3027" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="1077">
   <si>
     <t>Micos Reintro Jan-2005</t>
   </si>
@@ -3928,7 +3928,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>27940</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>128270</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4338,7 +4338,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8376257" y="504825"/>
+          <a:off x="8376257" y="15711642"/>
           <a:ext cx="53975" cy="51435"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="53975" cy="51435"/>
@@ -5493,11 +5493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N401" sqref="N401"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="L157" sqref="L157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5541,7 +5540,7 @@
       <c r="P1" s="17"/>
       <c r="Q1" s="14"/>
     </row>
-    <row r="2" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -5560,7 +5559,7 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="14"/>
     </row>
-    <row r="3" spans="1:17" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>244</v>
       </c>
@@ -5583,7 +5582,7 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="14"/>
     </row>
-    <row r="4" spans="1:17" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>1</v>
       </c>
@@ -5630,7 +5629,7 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>8</v>
       </c>
@@ -5673,7 +5672,7 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
     </row>
-    <row r="6" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>13</v>
       </c>
@@ -5714,7 +5713,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="34" t="s">
         <v>17</v>
@@ -5753,7 +5752,7 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
     </row>
-    <row r="8" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="34" t="s">
         <v>21</v>
@@ -5792,7 +5791,7 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:17" ht="12.2" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>796</v>
       </c>
@@ -5833,7 +5832,7 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
     </row>
-    <row r="10" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34"/>
       <c r="B10" s="34" t="s">
         <v>28</v>
@@ -5874,7 +5873,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="1:17" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="B11" s="34" t="s">
         <v>32</v>
@@ -5913,7 +5912,7 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="34" t="s">
         <v>36</v>
@@ -5942,7 +5941,7 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
     </row>
-    <row r="13" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34"/>
       <c r="B13" s="34" t="s">
         <v>39</v>
@@ -5983,7 +5982,7 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14" spans="1:17" ht="12.2" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
       <c r="B14" s="34" t="s">
         <v>42</v>
@@ -6022,7 +6021,7 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
     </row>
-    <row r="15" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
       <c r="B15" s="34" t="s">
         <v>45</v>
@@ -6059,7 +6058,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
     </row>
-    <row r="16" spans="1:17" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
       <c r="B16" s="34" t="s">
         <v>47</v>
@@ -6092,7 +6091,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
     </row>
-    <row r="17" spans="1:17" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34"/>
       <c r="B17" s="34" t="s">
         <v>49</v>
@@ -6129,7 +6128,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
     </row>
-    <row r="18" spans="1:17" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -6158,7 +6157,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
     </row>
-    <row r="19" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="s">
         <v>50</v>
       </c>
@@ -6189,7 +6188,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
     </row>
-    <row r="20" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
         <v>54</v>
       </c>
@@ -6220,7 +6219,7 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
     </row>
-    <row r="21" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
       <c r="B21" s="34" t="s">
         <v>58</v>
@@ -6261,7 +6260,7 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
     </row>
-    <row r="22" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="34"/>
       <c r="B22" s="34" t="s">
         <v>60</v>
@@ -6300,7 +6299,7 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
     </row>
-    <row r="23" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
       <c r="B23" s="34" t="s">
         <v>63</v>
@@ -6333,7 +6332,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
     </row>
-    <row r="24" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
       <c r="B24" s="34" t="s">
         <v>65</v>
@@ -6366,7 +6365,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
     </row>
-    <row r="25" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
       <c r="B25" s="34" t="s">
         <v>67</v>
@@ -6399,7 +6398,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
     </row>
-    <row r="26" spans="1:17" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39"/>
       <c r="B26" s="39" t="s">
         <v>69</v>
@@ -6428,7 +6427,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
     </row>
-    <row r="27" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
       <c r="B27" s="34" t="s">
         <v>70</v>
@@ -6469,7 +6468,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
     </row>
-    <row r="28" spans="1:17" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34"/>
       <c r="B28" s="34" t="s">
         <v>73</v>
@@ -6510,7 +6509,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
     </row>
-    <row r="29" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="34"/>
       <c r="B29" s="34" t="s">
         <v>75</v>
@@ -6549,7 +6548,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
         <v>77</v>
@@ -6584,7 +6583,7 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="1:17" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39"/>
       <c r="B31" s="39" t="s">
         <v>78</v>
@@ -6619,7 +6618,7 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
     </row>
-    <row r="32" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -6648,7 +6647,7 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
     </row>
-    <row r="33" spans="1:17" ht="12.2" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34" t="s">
         <v>79</v>
       </c>
@@ -6728,7 +6727,7 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
     </row>
-    <row r="35" spans="1:17" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="34"/>
       <c r="B35" s="34" t="s">
         <v>85</v>
@@ -6763,7 +6762,7 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
     </row>
-    <row r="36" spans="1:17" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34"/>
       <c r="B36" s="34" t="s">
         <v>88</v>
@@ -6796,7 +6795,7 @@
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
     </row>
-    <row r="37" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="34"/>
       <c r="B37" s="34" t="s">
         <v>91</v>
@@ -6821,7 +6820,7 @@
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
     </row>
-    <row r="38" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="34"/>
       <c r="B38" s="34" t="s">
         <v>93</v>
@@ -6862,7 +6861,7 @@
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
     </row>
-    <row r="39" spans="1:17" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="34"/>
       <c r="B39" s="34" t="s">
         <v>94</v>
@@ -6901,7 +6900,7 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
     </row>
-    <row r="40" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="34"/>
       <c r="B40" s="34" t="s">
         <v>97</v>
@@ -6942,7 +6941,7 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
     </row>
-    <row r="41" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34"/>
       <c r="B41" s="34" t="s">
         <v>211</v>
@@ -6981,7 +6980,7 @@
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
     </row>
-    <row r="42" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="34"/>
       <c r="B42" s="34" t="s">
         <v>101</v>
@@ -7014,7 +7013,7 @@
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
     </row>
-    <row r="43" spans="1:17" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="34"/>
       <c r="B43" s="34" t="s">
         <v>103</v>
@@ -7047,7 +7046,7 @@
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
     </row>
-    <row r="44" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -7076,7 +7075,7 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34" t="s">
         <v>104</v>
       </c>
@@ -7119,7 +7118,7 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="34" t="s">
         <v>108</v>
       </c>
@@ -7158,7 +7157,7 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="34"/>
       <c r="B47" s="34" t="s">
         <v>268</v>
@@ -7197,7 +7196,7 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="1:17" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="34" t="s">
         <v>796</v>
       </c>
@@ -7238,7 +7237,7 @@
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="1:17" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="34"/>
       <c r="B49" s="34" t="s">
         <v>111</v>
@@ -7277,7 +7276,7 @@
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="1:17" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="34"/>
       <c r="B50" s="34" t="s">
         <v>112</v>
@@ -7316,7 +7315,7 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
     </row>
-    <row r="51" spans="1:17" ht="12.2" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="34"/>
       <c r="B51" s="50" t="s">
         <v>799</v>
@@ -7355,7 +7354,7 @@
       <c r="P51" s="14"/>
       <c r="Q51" s="14"/>
     </row>
-    <row r="52" spans="1:17" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="34"/>
       <c r="B52" s="50" t="s">
         <v>800</v>
@@ -7388,7 +7387,7 @@
       <c r="P52" s="14"/>
       <c r="Q52" s="14"/>
     </row>
-    <row r="53" spans="1:17" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -7411,7 +7410,7 @@
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
     </row>
-    <row r="54" spans="1:17" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="34" t="s">
         <v>113</v>
       </c>
@@ -7444,7 +7443,7 @@
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
     </row>
-    <row r="55" spans="1:17" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="34" t="s">
         <v>117</v>
       </c>
@@ -7487,7 +7486,7 @@
       <c r="P55" s="17"/>
       <c r="Q55" s="14"/>
     </row>
-    <row r="56" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="34"/>
       <c r="B56" s="34" t="s">
         <v>121</v>
@@ -7520,7 +7519,7 @@
       <c r="P56" s="17"/>
       <c r="Q56" s="14"/>
     </row>
-    <row r="57" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="34"/>
       <c r="B57" s="34" t="s">
         <v>123</v>
@@ -7547,7 +7546,7 @@
       <c r="P57" s="17"/>
       <c r="Q57" s="14"/>
     </row>
-    <row r="58" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -7566,7 +7565,7 @@
       <c r="P58" s="17"/>
       <c r="Q58" s="14"/>
     </row>
-    <row r="59" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -7587,7 +7586,7 @@
       <c r="P59" s="17"/>
       <c r="Q59" s="14"/>
     </row>
-    <row r="60" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A60" s="57" t="s">
         <v>220</v>
       </c>
@@ -7632,7 +7631,7 @@
       <c r="P60" s="17"/>
       <c r="Q60" s="14"/>
     </row>
-    <row r="61" spans="1:17" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="57" t="s">
         <v>223</v>
       </c>
@@ -7675,7 +7674,7 @@
       <c r="P61" s="19"/>
       <c r="Q61" s="14"/>
     </row>
-    <row r="62" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="57"/>
       <c r="B62" s="57" t="s">
         <v>226</v>
@@ -7714,7 +7713,7 @@
       <c r="P62" s="17"/>
       <c r="Q62" s="14"/>
     </row>
-    <row r="63" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="57"/>
       <c r="B63" s="57" t="s">
         <v>212</v>
@@ -7755,7 +7754,7 @@
       <c r="P63" s="17"/>
       <c r="Q63" s="14"/>
     </row>
-    <row r="64" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="57"/>
       <c r="B64" s="57" t="s">
         <v>213</v>
@@ -7794,7 +7793,7 @@
       <c r="P64" s="19"/>
       <c r="Q64" s="14"/>
     </row>
-    <row r="65" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="57"/>
       <c r="B65" s="57" t="s">
         <v>214</v>
@@ -7823,7 +7822,7 @@
       <c r="P65" s="17"/>
       <c r="Q65" s="14"/>
     </row>
-    <row r="66" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="57"/>
       <c r="B66" s="57" t="s">
         <v>219</v>
@@ -7866,7 +7865,7 @@
       <c r="P66" s="17"/>
       <c r="Q66" s="14"/>
     </row>
-    <row r="67" spans="1:17" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="57"/>
       <c r="B67" s="57" t="s">
         <v>229</v>
@@ -7909,7 +7908,7 @@
       <c r="P67" s="17"/>
       <c r="Q67" s="14"/>
     </row>
-    <row r="68" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="57"/>
       <c r="B68" s="57" t="s">
         <v>230</v>
@@ -7948,7 +7947,7 @@
       <c r="P68" s="17"/>
       <c r="Q68" s="14"/>
     </row>
-    <row r="69" spans="1:17" ht="12.2" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="57"/>
       <c r="B69" s="57" t="s">
         <v>231</v>
@@ -7989,7 +7988,7 @@
       <c r="P69" s="17"/>
       <c r="Q69" s="14"/>
     </row>
-    <row r="70" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="57"/>
       <c r="B70" s="57" t="s">
         <v>217</v>
@@ -8022,7 +8021,7 @@
       <c r="P70" s="17"/>
       <c r="Q70" s="14"/>
     </row>
-    <row r="71" spans="1:17" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="57"/>
       <c r="B71" s="57" t="s">
         <v>218</v>
@@ -8055,7 +8054,7 @@
       <c r="P71" s="17"/>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="1:17" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -8084,7 +8083,7 @@
       <c r="P72" s="19"/>
       <c r="Q72" s="14"/>
     </row>
-    <row r="73" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="48"/>
       <c r="B73" s="57"/>
       <c r="C73" s="57"/>
@@ -8113,7 +8112,7 @@
       <c r="P73" s="19"/>
       <c r="Q73" s="14"/>
     </row>
-    <row r="74" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="57" t="s">
         <v>238</v>
       </c>
@@ -8148,7 +8147,7 @@
       <c r="P74" s="17"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="57" t="s">
         <v>241</v>
       </c>
@@ -8183,7 +8182,7 @@
       <c r="P75" s="17"/>
       <c r="Q75" s="14"/>
     </row>
-    <row r="76" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="57"/>
       <c r="B76" s="58" t="s">
         <v>233</v>
@@ -8212,7 +8211,7 @@
       <c r="P76" s="26"/>
       <c r="Q76" s="19"/>
     </row>
-    <row r="77" spans="1:17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -8243,7 +8242,7 @@
       <c r="P77" s="17"/>
       <c r="Q77" s="14"/>
     </row>
-    <row r="78" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="57" t="s">
         <v>291</v>
       </c>
@@ -8286,7 +8285,7 @@
       <c r="P78" s="17"/>
       <c r="Q78" s="14"/>
     </row>
-    <row r="79" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="54"/>
       <c r="B79" s="57" t="s">
         <v>293</v>
@@ -8325,7 +8324,7 @@
       <c r="P79" s="17"/>
       <c r="Q79" s="14"/>
     </row>
-    <row r="80" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="54"/>
       <c r="B80" s="57" t="s">
         <v>295</v>
@@ -8364,7 +8363,7 @@
       <c r="P80" s="17"/>
       <c r="Q80" s="14"/>
     </row>
-    <row r="81" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A81" s="54"/>
       <c r="B81" s="57" t="s">
         <v>286</v>
@@ -8399,7 +8398,7 @@
       <c r="P81" s="19"/>
       <c r="Q81" s="14"/>
     </row>
-    <row r="82" spans="1:17" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="54"/>
       <c r="B82" s="57" t="s">
         <v>287</v>
@@ -8432,7 +8431,7 @@
       <c r="P82" s="17"/>
       <c r="Q82" s="14"/>
     </row>
-    <row r="83" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A83" s="54"/>
       <c r="B83" s="57" t="s">
         <v>288</v>
@@ -8465,7 +8464,7 @@
       <c r="P83" s="19"/>
       <c r="Q83" s="19"/>
     </row>
-    <row r="84" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A84" s="54"/>
       <c r="B84" s="57" t="s">
         <v>279</v>
@@ -8494,7 +8493,7 @@
       <c r="P84" s="19"/>
       <c r="Q84" s="19"/>
     </row>
-    <row r="85" spans="1:17" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="54"/>
       <c r="B85" s="57" t="s">
         <v>280</v>
@@ -8533,7 +8532,7 @@
       <c r="P85" s="19"/>
       <c r="Q85" s="19"/>
     </row>
-    <row r="86" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A86" s="54"/>
       <c r="B86" s="57" t="s">
         <v>281</v>
@@ -8572,7 +8571,7 @@
       <c r="P86" s="19"/>
       <c r="Q86" s="19"/>
     </row>
-    <row r="87" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="57"/>
       <c r="B87" s="57" t="s">
         <v>282</v>
@@ -8603,7 +8602,7 @@
       <c r="P87" s="17"/>
       <c r="Q87" s="14"/>
     </row>
-    <row r="88" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -8630,7 +8629,7 @@
       <c r="P88" s="17"/>
       <c r="Q88" s="14"/>
     </row>
-    <row r="89" spans="1:17" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="57" t="s">
         <v>311</v>
       </c>
@@ -8671,7 +8670,7 @@
       <c r="P89" s="17"/>
       <c r="Q89" s="14"/>
     </row>
-    <row r="90" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="57" t="s">
         <v>321</v>
       </c>
@@ -8702,7 +8701,7 @@
       <c r="P90" s="17"/>
       <c r="Q90" s="14"/>
     </row>
-    <row r="91" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="54"/>
       <c r="B91" s="57" t="s">
         <v>132</v>
@@ -8741,7 +8740,7 @@
       <c r="P91" s="17"/>
       <c r="Q91" s="14"/>
     </row>
-    <row r="92" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="54"/>
       <c r="B92" s="57" t="s">
         <v>322</v>
@@ -8778,7 +8777,7 @@
       <c r="P92" s="17"/>
       <c r="Q92" s="14"/>
     </row>
-    <row r="93" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A93" s="54"/>
       <c r="B93" s="57" t="s">
         <v>324</v>
@@ -8807,7 +8806,7 @@
       <c r="P93" s="17"/>
       <c r="Q93" s="14"/>
     </row>
-    <row r="94" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A94" s="54"/>
       <c r="B94" s="57" t="s">
         <v>326</v>
@@ -8846,7 +8845,7 @@
       <c r="P94" s="19"/>
       <c r="Q94" s="19"/>
     </row>
-    <row r="95" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="54"/>
       <c r="B95" s="57" t="s">
         <v>328</v>
@@ -8885,7 +8884,7 @@
       <c r="P95" s="17"/>
       <c r="Q95" s="14"/>
     </row>
-    <row r="96" spans="1:17" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="54"/>
       <c r="B96" s="57" t="s">
         <v>314</v>
@@ -8918,7 +8917,7 @@
       <c r="P96" s="17"/>
       <c r="Q96" s="14"/>
     </row>
-    <row r="97" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="57"/>
       <c r="B97" s="57" t="s">
         <v>315</v>
@@ -8953,7 +8952,7 @@
       <c r="P97" s="17"/>
       <c r="Q97" s="14"/>
     </row>
-    <row r="98" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -8976,7 +8975,7 @@
       <c r="P98" s="17"/>
       <c r="Q98" s="14"/>
     </row>
-    <row r="99" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="57" t="s">
         <v>334</v>
       </c>
@@ -9011,7 +9010,7 @@
       <c r="P99" s="17"/>
       <c r="Q99" s="14"/>
     </row>
-    <row r="100" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="57" t="s">
         <v>335</v>
       </c>
@@ -9048,7 +9047,7 @@
       <c r="P100" s="17"/>
       <c r="Q100" s="14"/>
     </row>
-    <row r="101" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="57"/>
       <c r="B101" s="57" t="s">
         <v>340</v>
@@ -9081,7 +9080,7 @@
       <c r="P101" s="17"/>
       <c r="Q101" s="14"/>
     </row>
-    <row r="102" spans="1:17" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="57"/>
       <c r="B102" s="57" t="s">
         <v>341</v>
@@ -9110,7 +9109,7 @@
       <c r="P102" s="17"/>
       <c r="Q102" s="14"/>
     </row>
-    <row r="103" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="57"/>
       <c r="B103" s="57" t="s">
         <v>337</v>
@@ -9149,7 +9148,7 @@
       <c r="P103" s="19"/>
       <c r="Q103" s="19"/>
     </row>
-    <row r="104" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A104" s="57"/>
       <c r="B104" s="57" t="s">
         <v>343</v>
@@ -9190,7 +9189,7 @@
       <c r="P104" s="14"/>
       <c r="Q104" s="14"/>
     </row>
-    <row r="105" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="57"/>
       <c r="B105" s="57" t="s">
         <v>344</v>
@@ -9219,7 +9218,7 @@
       <c r="P105" s="17"/>
       <c r="Q105" s="17"/>
     </row>
-    <row r="106" spans="1:17" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="57"/>
       <c r="B106" s="57" t="s">
         <v>345</v>
@@ -9248,7 +9247,7 @@
       <c r="P106" s="16"/>
       <c r="Q106" s="14"/>
     </row>
-    <row r="107" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="57"/>
       <c r="B107" s="57" t="s">
         <v>346</v>
@@ -9279,7 +9278,7 @@
       <c r="P107" s="11"/>
       <c r="Q107" s="14"/>
     </row>
-    <row r="108" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -9312,7 +9311,7 @@
       <c r="P108" s="11"/>
       <c r="Q108" s="14"/>
     </row>
-    <row r="109" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A109" s="17"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
@@ -9343,7 +9342,7 @@
       <c r="P109" s="11"/>
       <c r="Q109" s="14"/>
     </row>
-    <row r="110" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="35" t="s">
         <v>244</v>
       </c>
@@ -9374,7 +9373,7 @@
       <c r="P110" s="19"/>
       <c r="Q110" s="14"/>
     </row>
-    <row r="111" spans="1:17" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="35" t="s">
         <v>1</v>
       </c>
@@ -9417,7 +9416,7 @@
       <c r="P111" s="17"/>
       <c r="Q111" s="14"/>
     </row>
-    <row r="112" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="35" t="s">
         <v>382</v>
       </c>
@@ -9460,7 +9459,7 @@
       <c r="P112" s="17"/>
       <c r="Q112" s="14"/>
     </row>
-    <row r="113" spans="1:17" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="35" t="s">
         <v>385</v>
       </c>
@@ -9499,7 +9498,7 @@
       <c r="P113" s="17"/>
       <c r="Q113" s="14"/>
     </row>
-    <row r="114" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="57"/>
       <c r="B114" s="57" t="s">
         <v>373</v>
@@ -9534,7 +9533,7 @@
       <c r="P114" s="19"/>
       <c r="Q114" s="14"/>
     </row>
-    <row r="115" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="57"/>
       <c r="B115" s="57" t="s">
         <v>386</v>
@@ -9561,7 +9560,7 @@
       <c r="P115" s="19"/>
       <c r="Q115" s="14"/>
     </row>
-    <row r="116" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="57"/>
       <c r="B116" s="57" t="s">
         <v>388</v>
@@ -9584,7 +9583,7 @@
       <c r="P116" s="19"/>
       <c r="Q116" s="14"/>
     </row>
-    <row r="117" spans="1:17" ht="18.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="10"/>
@@ -9613,7 +9612,7 @@
       <c r="P117" s="17"/>
       <c r="Q117" s="14"/>
     </row>
-    <row r="118" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A118" s="19"/>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
@@ -9640,7 +9639,7 @@
       <c r="P118" s="17"/>
       <c r="Q118" s="14"/>
     </row>
-    <row r="119" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A119" s="19"/>
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
@@ -9667,7 +9666,7 @@
       <c r="P119" s="17"/>
       <c r="Q119" s="14"/>
     </row>
-    <row r="120" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A120" s="57" t="s">
         <v>368</v>
       </c>
@@ -9702,7 +9701,7 @@
       <c r="P120" s="17"/>
       <c r="Q120" s="14"/>
     </row>
-    <row r="121" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A121" s="54" t="s">
         <v>368</v>
       </c>
@@ -9733,7 +9732,7 @@
       <c r="P121" s="17"/>
       <c r="Q121" s="14"/>
     </row>
-    <row r="122" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A122" s="14"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
@@ -9762,7 +9761,7 @@
       <c r="P122" s="17"/>
       <c r="Q122" s="14"/>
     </row>
-    <row r="123" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A123" s="54" t="s">
         <v>404</v>
       </c>
@@ -9795,7 +9794,7 @@
       <c r="P123" s="19"/>
       <c r="Q123" s="14"/>
     </row>
-    <row r="124" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="54"/>
       <c r="B124" s="57" t="s">
         <v>406</v>
@@ -9826,7 +9825,7 @@
       <c r="P124" s="17"/>
       <c r="Q124" s="17"/>
     </row>
-    <row r="125" spans="1:17" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="18"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
@@ -9845,7 +9844,7 @@
       <c r="P125" s="28"/>
       <c r="Q125" s="14"/>
     </row>
-    <row r="126" spans="1:17" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="54" t="s">
         <v>407</v>
       </c>
@@ -9876,7 +9875,7 @@
       <c r="P126" s="16"/>
       <c r="Q126" s="14"/>
     </row>
-    <row r="127" spans="1:17" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="57"/>
       <c r="B127" s="57" t="s">
         <v>408</v>
@@ -9913,7 +9912,7 @@
       <c r="P127" s="16"/>
       <c r="Q127" s="14"/>
     </row>
-    <row r="128" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A128" s="17"/>
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
@@ -9944,7 +9943,7 @@
       <c r="P128" s="19"/>
       <c r="Q128" s="19"/>
     </row>
-    <row r="129" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A129" s="70" t="s">
         <v>418</v>
       </c>
@@ -9983,7 +9982,7 @@
       <c r="P129" s="19"/>
       <c r="Q129" s="19"/>
     </row>
-    <row r="130" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A130" s="35"/>
       <c r="B130" s="35" t="s">
         <v>92</v>
@@ -10012,7 +10011,7 @@
       <c r="P130" s="19"/>
       <c r="Q130" s="19"/>
     </row>
-    <row r="131" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A131" s="16"/>
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
@@ -10039,7 +10038,7 @@
       <c r="P131" s="17"/>
       <c r="Q131" s="19"/>
     </row>
-    <row r="132" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A132" s="57" t="s">
         <v>419</v>
       </c>
@@ -10076,7 +10075,7 @@
       <c r="P132" s="17"/>
       <c r="Q132" s="19"/>
     </row>
-    <row r="133" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A133" s="57"/>
       <c r="B133" s="57" t="s">
         <v>421</v>
@@ -10113,7 +10112,7 @@
       <c r="P133" s="17"/>
       <c r="Q133" s="19"/>
     </row>
-    <row r="134" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A134" s="57"/>
       <c r="B134" s="57" t="s">
         <v>422</v>
@@ -10148,7 +10147,7 @@
       <c r="P134" s="17"/>
       <c r="Q134" s="19"/>
     </row>
-    <row r="135" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A135" s="57"/>
       <c r="B135" s="57" t="s">
         <v>423</v>
@@ -10175,7 +10174,7 @@
       <c r="P135" s="17"/>
       <c r="Q135" s="19"/>
     </row>
-    <row r="136" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A136" s="57"/>
       <c r="B136" s="57" t="s">
         <v>424</v>
@@ -10204,7 +10203,7 @@
       <c r="P136" s="17"/>
       <c r="Q136" s="19"/>
     </row>
-    <row r="137" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A137" s="17"/>
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
@@ -10237,7 +10236,7 @@
       <c r="P137" s="19"/>
       <c r="Q137" s="19"/>
     </row>
-    <row r="138" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A138" s="57" t="s">
         <v>425</v>
       </c>
@@ -10264,7 +10263,7 @@
       <c r="P138" s="17"/>
       <c r="Q138" s="14"/>
     </row>
-    <row r="139" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A139" s="57" t="s">
         <v>426</v>
       </c>
@@ -10295,7 +10294,7 @@
       <c r="P139" s="17"/>
       <c r="Q139" s="14"/>
     </row>
-    <row r="140" spans="1:17" ht="27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" ht="27" x14ac:dyDescent="0.2">
       <c r="A140" s="57" t="s">
         <v>432</v>
       </c>
@@ -10326,7 +10325,7 @@
       <c r="P140" s="17"/>
       <c r="Q140" s="19"/>
     </row>
-    <row r="141" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="48"/>
       <c r="B141" s="57" t="s">
         <v>431</v>
@@ -10371,7 +10370,7 @@
       <c r="P141" s="11"/>
       <c r="Q141" s="14"/>
     </row>
-    <row r="142" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="57"/>
       <c r="B142" s="57" t="s">
         <v>429</v>
@@ -10412,7 +10411,7 @@
       <c r="P142" s="11"/>
       <c r="Q142" s="14"/>
     </row>
-    <row r="143" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A143" s="54"/>
       <c r="B143" s="54" t="s">
         <v>427</v>
@@ -10445,7 +10444,7 @@
       <c r="P143" s="21"/>
       <c r="Q143" s="14"/>
     </row>
-    <row r="144" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A144" s="18"/>
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
@@ -10472,7 +10471,7 @@
       <c r="P144" s="22"/>
       <c r="Q144" s="14"/>
     </row>
-    <row r="145" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="54" t="s">
         <v>451</v>
       </c>
@@ -10513,7 +10512,7 @@
       <c r="P145" s="11"/>
       <c r="Q145" s="14"/>
     </row>
-    <row r="146" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="35" t="s">
         <v>457</v>
       </c>
@@ -10546,7 +10545,7 @@
       <c r="P146" s="11"/>
       <c r="Q146" s="14"/>
     </row>
-    <row r="147" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="35"/>
       <c r="B147" s="35" t="s">
         <v>460</v>
@@ -10587,7 +10586,7 @@
       <c r="P147" s="21"/>
       <c r="Q147" s="14"/>
     </row>
-    <row r="148" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A148" s="35"/>
       <c r="B148" s="35" t="s">
         <v>461</v>
@@ -10626,7 +10625,7 @@
       <c r="P148" s="22"/>
       <c r="Q148" s="14"/>
     </row>
-    <row r="149" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="35"/>
       <c r="B149" s="35" t="s">
         <v>462</v>
@@ -10665,7 +10664,7 @@
       <c r="P149" s="11"/>
       <c r="Q149" s="14"/>
     </row>
-    <row r="150" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="35"/>
       <c r="B150" s="35" t="s">
         <v>463</v>
@@ -10688,7 +10687,7 @@
       <c r="P150" s="11"/>
       <c r="Q150" s="14"/>
     </row>
-    <row r="151" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="35"/>
       <c r="B151" s="35" t="s">
         <v>464</v>
@@ -10725,7 +10724,7 @@
       <c r="P151" s="11"/>
       <c r="Q151" s="14"/>
     </row>
-    <row r="152" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="16"/>
       <c r="B152" s="16"/>
       <c r="C152" s="16"/>
@@ -10754,7 +10753,7 @@
       <c r="P152" s="11"/>
       <c r="Q152" s="14"/>
     </row>
-    <row r="153" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="35" t="s">
         <v>460</v>
       </c>
@@ -10795,7 +10794,7 @@
       <c r="P153" s="16"/>
       <c r="Q153" s="14"/>
     </row>
-    <row r="154" spans="1:17" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="35"/>
       <c r="B154" s="35" t="s">
         <v>496</v>
@@ -10824,7 +10823,7 @@
       <c r="P154" s="16"/>
       <c r="Q154" s="14"/>
     </row>
-    <row r="155" spans="1:17" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="35"/>
       <c r="B155" s="35" t="s">
         <v>497</v>
@@ -10849,7 +10848,7 @@
       <c r="P155" s="16"/>
       <c r="Q155" s="14"/>
     </row>
-    <row r="156" spans="1:17" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="76"/>
       <c r="B156" s="76" t="s">
         <v>498</v>
@@ -10869,8 +10868,8 @@
         <v>487</v>
       </c>
       <c r="K156" s="68"/>
-      <c r="L156" s="68" t="s">
-        <v>524</v>
+      <c r="L156" t="s">
+        <v>19</v>
       </c>
       <c r="M156" s="68" t="s">
         <v>19</v>
@@ -10884,7 +10883,7 @@
       <c r="P156" s="11"/>
       <c r="Q156" s="14"/>
     </row>
-    <row r="157" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="57"/>
       <c r="B157" s="57" t="s">
         <v>469</v>
@@ -10905,7 +10904,7 @@
       </c>
       <c r="K157" s="68"/>
       <c r="L157" s="68" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M157" s="68" t="s">
         <v>11</v>
@@ -10917,7 +10916,7 @@
       <c r="P157" s="11"/>
       <c r="Q157" s="14"/>
     </row>
-    <row r="158" spans="1:17" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="54"/>
       <c r="B158" s="54" t="s">
         <v>470</v>
@@ -10936,7 +10935,7 @@
       </c>
       <c r="K158" s="68"/>
       <c r="L158" s="68" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M158" s="68" t="s">
         <v>11</v>
@@ -10948,7 +10947,7 @@
       <c r="P158" s="16"/>
       <c r="Q158" s="14"/>
     </row>
-    <row r="159" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -10962,8 +10961,8 @@
         <v>526</v>
       </c>
       <c r="K159" s="35"/>
-      <c r="L159" s="35" t="s">
-        <v>527</v>
+      <c r="L159" s="68" t="s">
+        <v>526</v>
       </c>
       <c r="M159" s="35" t="s">
         <v>19</v>
@@ -10975,7 +10974,7 @@
       <c r="P159" s="16"/>
       <c r="Q159" s="14"/>
     </row>
-    <row r="160" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="16"/>
       <c r="B160" s="16"/>
       <c r="C160" s="16"/>
@@ -10989,7 +10988,9 @@
         <v>527</v>
       </c>
       <c r="K160" s="35"/>
-      <c r="L160" s="35"/>
+      <c r="L160" s="35" t="s">
+        <v>527</v>
+      </c>
       <c r="M160" s="35" t="s">
         <v>19</v>
       </c>
@@ -11000,7 +11001,7 @@
       <c r="P160" s="17"/>
       <c r="Q160" s="17"/>
     </row>
-    <row r="161" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A161" s="57" t="s">
         <v>500</v>
       </c>
@@ -11025,7 +11026,7 @@
       <c r="P161" s="18"/>
       <c r="Q161" s="14"/>
     </row>
-    <row r="162" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A162" s="54" t="s">
         <v>501</v>
       </c>
@@ -11056,7 +11057,7 @@
       <c r="P162" s="18"/>
       <c r="Q162" s="14"/>
     </row>
-    <row r="163" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A163" s="54" t="s">
         <v>502</v>
       </c>
@@ -11083,7 +11084,7 @@
       <c r="P163" s="18"/>
       <c r="Q163" s="14"/>
     </row>
-    <row r="164" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A164" s="54"/>
       <c r="B164" s="54" t="s">
         <v>505</v>
@@ -11120,7 +11121,7 @@
       <c r="P164" s="18"/>
       <c r="Q164" s="14"/>
     </row>
-    <row r="165" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A165" s="54"/>
       <c r="B165" s="54" t="s">
         <v>506</v>
@@ -11157,7 +11158,7 @@
       <c r="P165" s="18"/>
       <c r="Q165" s="14"/>
     </row>
-    <row r="166" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A166" s="54"/>
       <c r="B166" s="54" t="s">
         <v>507</v>
@@ -11192,7 +11193,7 @@
       <c r="P166" s="18"/>
       <c r="Q166" s="14"/>
     </row>
-    <row r="167" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A167" s="54"/>
       <c r="B167" s="54" t="s">
         <v>508</v>
@@ -11225,7 +11226,7 @@
       <c r="P167" s="18"/>
       <c r="Q167" s="14"/>
     </row>
-    <row r="168" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A168" s="18"/>
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
@@ -11244,7 +11245,7 @@
       <c r="P168" s="18"/>
       <c r="Q168" s="14"/>
     </row>
-    <row r="169" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A169" s="54" t="s">
         <v>509</v>
       </c>
@@ -11283,7 +11284,7 @@
       <c r="P169" s="18"/>
       <c r="Q169" s="14"/>
     </row>
-    <row r="170" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A170" s="54" t="s">
         <v>510</v>
       </c>
@@ -11320,7 +11321,7 @@
       <c r="P170" s="18"/>
       <c r="Q170" s="14"/>
     </row>
-    <row r="171" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A171" s="54"/>
       <c r="B171" s="54" t="s">
         <v>512</v>
@@ -11355,7 +11356,7 @@
       <c r="P171" s="18"/>
       <c r="Q171" s="14"/>
     </row>
-    <row r="172" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A172" s="54"/>
       <c r="B172" s="54" t="s">
         <v>513</v>
@@ -11386,7 +11387,7 @@
       <c r="P172" s="18"/>
       <c r="Q172" s="14"/>
     </row>
-    <row r="173" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A173" s="54"/>
       <c r="B173" s="54" t="s">
         <v>514</v>
@@ -11417,7 +11418,7 @@
       <c r="P173" s="18"/>
       <c r="Q173" s="14"/>
     </row>
-    <row r="174" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A174" s="18"/>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
@@ -11444,7 +11445,7 @@
       <c r="P174" s="18"/>
       <c r="Q174" s="14"/>
     </row>
-    <row r="175" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A175" s="54" t="s">
         <v>521</v>
       </c>
@@ -11473,7 +11474,7 @@
       <c r="P175" s="18"/>
       <c r="Q175" s="14"/>
     </row>
-    <row r="176" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A176" s="54" t="s">
         <v>516</v>
       </c>
@@ -11510,7 +11511,7 @@
       <c r="P176" s="18"/>
       <c r="Q176" s="14"/>
     </row>
-    <row r="177" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A177" s="54"/>
       <c r="B177" s="54" t="s">
         <v>518</v>
@@ -11545,7 +11546,7 @@
       <c r="P177" s="18"/>
       <c r="Q177" s="14"/>
     </row>
-    <row r="178" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A178" s="54"/>
       <c r="B178" s="54" t="s">
         <v>520</v>
@@ -11580,7 +11581,7 @@
       <c r="P178" s="18"/>
       <c r="Q178" s="14"/>
     </row>
-    <row r="179" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A179" s="18"/>
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
@@ -11607,7 +11608,7 @@
       <c r="P179" s="18"/>
       <c r="Q179" s="14"/>
     </row>
-    <row r="180" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A180" s="54" t="s">
         <v>550</v>
       </c>
@@ -11636,7 +11637,7 @@
       <c r="P180" s="18"/>
       <c r="Q180" s="14"/>
     </row>
-    <row r="181" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A181" s="54" t="s">
         <v>551</v>
       </c>
@@ -11671,7 +11672,7 @@
       <c r="P181" s="18"/>
       <c r="Q181" s="14"/>
     </row>
-    <row r="182" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A182" s="54" t="s">
         <v>552</v>
       </c>
@@ -11704,7 +11705,7 @@
       <c r="P182" s="18"/>
       <c r="Q182" s="14"/>
     </row>
-    <row r="183" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A183" s="54"/>
       <c r="B183" s="54" t="s">
         <v>554</v>
@@ -11731,7 +11732,7 @@
       <c r="P183" s="18"/>
       <c r="Q183" s="14"/>
     </row>
-    <row r="184" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A184" s="54"/>
       <c r="B184" s="54" t="s">
         <v>555</v>
@@ -11760,7 +11761,7 @@
       <c r="P184" s="18"/>
       <c r="Q184" s="14"/>
     </row>
-    <row r="185" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A185" s="54"/>
       <c r="B185" s="54" t="s">
         <v>556</v>
@@ -11797,7 +11798,7 @@
       <c r="P185" s="18"/>
       <c r="Q185" s="14"/>
     </row>
-    <row r="186" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A186" s="54"/>
       <c r="B186" s="54" t="s">
         <v>557</v>
@@ -11834,7 +11835,7 @@
       <c r="P186" s="18"/>
       <c r="Q186" s="14"/>
     </row>
-    <row r="187" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A187" s="54"/>
       <c r="B187" s="54" t="s">
         <v>558</v>
@@ -11865,7 +11866,7 @@
       <c r="P187" s="18"/>
       <c r="Q187" s="14"/>
     </row>
-    <row r="188" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A188" s="54"/>
       <c r="B188" s="54" t="s">
         <v>559</v>
@@ -11896,7 +11897,7 @@
       <c r="P188" s="18"/>
       <c r="Q188" s="14"/>
     </row>
-    <row r="189" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A189" s="18"/>
       <c r="B189" s="18"/>
       <c r="C189" s="18"/>
@@ -11923,7 +11924,7 @@
       <c r="P189" s="18"/>
       <c r="Q189" s="14"/>
     </row>
-    <row r="190" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A190" s="54" t="s">
         <v>560</v>
       </c>
@@ -11952,7 +11953,7 @@
       <c r="P190" s="18"/>
       <c r="Q190" s="14"/>
     </row>
-    <row r="191" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A191" s="54" t="s">
         <v>561</v>
       </c>
@@ -11989,7 +11990,7 @@
       <c r="P191" s="18"/>
       <c r="Q191" s="14"/>
     </row>
-    <row r="192" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A192" s="54" t="s">
         <v>562</v>
       </c>
@@ -12026,7 +12027,7 @@
       <c r="P192" s="18"/>
       <c r="Q192" s="14"/>
     </row>
-    <row r="193" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A193" s="54"/>
       <c r="B193" s="54" t="s">
         <v>565</v>
@@ -12061,7 +12062,7 @@
       <c r="P193" s="18"/>
       <c r="Q193" s="14"/>
     </row>
-    <row r="194" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A194" s="54"/>
       <c r="B194" s="54" t="s">
         <v>566</v>
@@ -12094,7 +12095,7 @@
       <c r="P194" s="18"/>
       <c r="Q194" s="14"/>
     </row>
-    <row r="195" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A195" s="54"/>
       <c r="B195" s="54" t="s">
         <v>567</v>
@@ -12125,7 +12126,7 @@
       <c r="P195" s="18"/>
       <c r="Q195" s="14"/>
     </row>
-    <row r="196" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A196" s="54"/>
       <c r="B196" s="54" t="s">
         <v>568</v>
@@ -12154,7 +12155,7 @@
       <c r="P196" s="18"/>
       <c r="Q196" s="14"/>
     </row>
-    <row r="197" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A197" s="54"/>
       <c r="B197" s="54" t="s">
         <v>569</v>
@@ -12189,7 +12190,7 @@
       <c r="P197" s="18"/>
       <c r="Q197" s="14"/>
     </row>
-    <row r="198" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A198" s="54"/>
       <c r="B198" s="54" t="s">
         <v>570</v>
@@ -12220,7 +12221,7 @@
       <c r="P198" s="18"/>
       <c r="Q198" s="14"/>
     </row>
-    <row r="199" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A199" s="54"/>
       <c r="B199" s="54" t="s">
         <v>571</v>
@@ -12255,7 +12256,7 @@
       <c r="P199" s="18"/>
       <c r="Q199" s="14"/>
     </row>
-    <row r="200" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A200" s="54"/>
       <c r="B200" s="54" t="s">
         <v>572</v>
@@ -12275,7 +12276,7 @@
       <c r="P200" s="18"/>
       <c r="Q200" s="14"/>
     </row>
-    <row r="201" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A201" s="54"/>
       <c r="B201" s="54" t="s">
         <v>573</v>
@@ -12300,7 +12301,7 @@
       <c r="P201" s="18"/>
       <c r="Q201" s="14"/>
     </row>
-    <row r="202" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A202" s="54"/>
       <c r="B202" s="54" t="s">
         <v>574</v>
@@ -12339,7 +12340,7 @@
       <c r="P202" s="18"/>
       <c r="Q202" s="14"/>
     </row>
-    <row r="203" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A203" s="54"/>
       <c r="B203" s="54" t="s">
         <v>575</v>
@@ -12376,7 +12377,7 @@
       <c r="P203" s="18"/>
       <c r="Q203" s="14"/>
     </row>
-    <row r="204" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="18"/>
       <c r="B204" s="18"/>
       <c r="C204" s="18"/>
@@ -12407,7 +12408,7 @@
       <c r="P204" s="18"/>
       <c r="Q204" s="14"/>
     </row>
-    <row r="205" spans="1:18" ht="27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" ht="27" x14ac:dyDescent="0.2">
       <c r="A205" s="80" t="s">
         <v>609</v>
       </c>
@@ -12438,7 +12439,7 @@
       <c r="P205" s="18"/>
       <c r="Q205" s="14"/>
     </row>
-    <row r="206" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A206" s="80" t="s">
         <v>1</v>
       </c>
@@ -12471,7 +12472,7 @@
       <c r="P206" s="18"/>
       <c r="Q206" s="14"/>
     </row>
-    <row r="207" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A207" s="80" t="s">
         <v>680</v>
       </c>
@@ -12505,7 +12506,7 @@
       <c r="Q207" s="19"/>
       <c r="R207" s="2"/>
     </row>
-    <row r="208" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A208" s="80"/>
       <c r="B208" s="80" t="s">
         <v>683</v>
@@ -12538,7 +12539,7 @@
       <c r="P208" s="18"/>
       <c r="Q208" s="14"/>
     </row>
-    <row r="209" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A209" s="80"/>
       <c r="B209" s="80" t="s">
         <v>684</v>
@@ -12581,7 +12582,7 @@
       <c r="P209" s="18"/>
       <c r="Q209" s="14"/>
     </row>
-    <row r="210" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A210" s="80"/>
       <c r="B210" s="80" t="s">
         <v>685</v>
@@ -12624,7 +12625,7 @@
       <c r="P210" s="12"/>
       <c r="Q210" s="14"/>
     </row>
-    <row r="211" spans="1:17" ht="11.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="80"/>
       <c r="B211" s="80" t="s">
         <v>686</v>
@@ -12665,7 +12666,7 @@
       <c r="P211" s="18"/>
       <c r="Q211" s="14"/>
     </row>
-    <row r="212" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="80"/>
       <c r="B212" s="80" t="s">
         <v>687</v>
@@ -12704,7 +12705,7 @@
       <c r="P212" s="18"/>
       <c r="Q212" s="14"/>
     </row>
-    <row r="213" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="80"/>
       <c r="B213" s="80" t="s">
         <v>688</v>
@@ -12733,7 +12734,7 @@
       <c r="P213" s="18"/>
       <c r="Q213" s="14"/>
     </row>
-    <row r="214" spans="1:17" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="80"/>
       <c r="B214" s="80" t="s">
         <v>691</v>
@@ -12764,7 +12765,7 @@
       <c r="P214" s="18"/>
       <c r="Q214" s="14"/>
     </row>
-    <row r="215" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="80"/>
       <c r="B215" s="80" t="s">
         <v>692</v>
@@ -12805,7 +12806,7 @@
       <c r="P215" s="18"/>
       <c r="Q215" s="14"/>
     </row>
-    <row r="216" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="80"/>
       <c r="B216" s="80" t="s">
         <v>696</v>
@@ -12844,7 +12845,7 @@
       <c r="P216" s="18"/>
       <c r="Q216" s="14"/>
     </row>
-    <row r="217" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="80"/>
       <c r="B217" s="80" t="s">
         <v>698</v>
@@ -12885,7 +12886,7 @@
       <c r="P217" s="18"/>
       <c r="Q217" s="14"/>
     </row>
-    <row r="218" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="80"/>
       <c r="B218" s="80" t="s">
         <v>610</v>
@@ -12918,7 +12919,7 @@
       <c r="P218" s="18"/>
       <c r="Q218" s="14"/>
     </row>
-    <row r="219" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="80"/>
       <c r="B219" s="80" t="s">
         <v>702</v>
@@ -12951,7 +12952,7 @@
       <c r="P219" s="18"/>
       <c r="Q219" s="14"/>
     </row>
-    <row r="220" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="11"/>
@@ -12980,7 +12981,7 @@
       <c r="P220" s="18"/>
       <c r="Q220" s="14"/>
     </row>
-    <row r="221" spans="1:17" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="11"/>
@@ -12999,7 +13000,7 @@
       <c r="P221" s="18"/>
       <c r="Q221" s="14"/>
     </row>
-    <row r="222" spans="1:17" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="6"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -13020,7 +13021,7 @@
       <c r="P222" s="18"/>
       <c r="Q222" s="14"/>
     </row>
-    <row r="223" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A223" s="80" t="s">
         <v>539</v>
       </c>
@@ -13067,7 +13068,7 @@
       <c r="P223" s="18"/>
       <c r="Q223" s="14"/>
     </row>
-    <row r="224" spans="1:17" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="80"/>
       <c r="B224" s="80" t="s">
         <v>708</v>
@@ -13108,7 +13109,7 @@
       <c r="P224" s="18"/>
       <c r="Q224" s="14"/>
     </row>
-    <row r="225" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="80"/>
       <c r="B225" s="80" t="s">
         <v>709</v>
@@ -13143,7 +13144,7 @@
       <c r="P225" s="18"/>
       <c r="Q225" s="14"/>
     </row>
-    <row r="226" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="80"/>
       <c r="B226" s="80" t="s">
         <v>613</v>
@@ -13176,7 +13177,7 @@
       <c r="P226" s="18"/>
       <c r="Q226" s="14"/>
     </row>
-    <row r="227" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="80"/>
       <c r="B227" s="80" t="s">
         <v>614</v>
@@ -13209,7 +13210,7 @@
       <c r="P227" s="18"/>
       <c r="Q227" s="14"/>
     </row>
-    <row r="228" spans="1:17" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="80"/>
       <c r="B228" s="80" t="s">
         <v>611</v>
@@ -13232,7 +13233,7 @@
       <c r="P228" s="18"/>
       <c r="Q228" s="14"/>
     </row>
-    <row r="229" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="80"/>
       <c r="B229" s="82" t="s">
         <v>615</v>
@@ -13257,7 +13258,7 @@
       <c r="P229" s="84"/>
       <c r="Q229" s="14"/>
     </row>
-    <row r="230" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" s="14"/>
@@ -13290,7 +13291,7 @@
       <c r="P230" s="81"/>
       <c r="Q230" s="14"/>
     </row>
-    <row r="231" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" s="14"/>
@@ -13323,7 +13324,7 @@
       <c r="P231" s="82"/>
       <c r="Q231" s="17"/>
     </row>
-    <row r="232" spans="1:17" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="17"/>
       <c r="B232" s="17"/>
       <c r="C232" s="17"/>
@@ -13354,7 +13355,7 @@
       <c r="P232" s="88"/>
       <c r="Q232" s="14"/>
     </row>
-    <row r="233" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="80" t="s">
         <v>673</v>
       </c>
@@ -13385,7 +13386,7 @@
       <c r="P233" s="82"/>
       <c r="Q233" s="14"/>
     </row>
-    <row r="234" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="80" t="s">
         <v>1</v>
       </c>
@@ -13428,7 +13429,7 @@
       <c r="P234" s="82"/>
       <c r="Q234" s="14"/>
     </row>
-    <row r="235" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="80" t="s">
         <v>622</v>
       </c>
@@ -13469,7 +13470,7 @@
       <c r="P235" s="82"/>
       <c r="Q235" s="14"/>
     </row>
-    <row r="236" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="80" t="s">
         <v>625</v>
       </c>
@@ -13510,7 +13511,7 @@
       <c r="P236" s="82"/>
       <c r="Q236" s="14"/>
     </row>
-    <row r="237" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="80"/>
       <c r="B237" s="80" t="s">
         <v>628</v>
@@ -13549,7 +13550,7 @@
       <c r="P237" s="82"/>
       <c r="Q237" s="14"/>
     </row>
-    <row r="238" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A238" s="80"/>
       <c r="B238" s="80" t="s">
         <v>629</v>
@@ -13588,7 +13589,7 @@
       <c r="P238" s="82"/>
       <c r="Q238" s="14"/>
     </row>
-    <row r="239" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="80"/>
       <c r="B239" s="80" t="s">
         <v>630</v>
@@ -13617,7 +13618,7 @@
       <c r="P239" s="13"/>
       <c r="Q239" s="14"/>
     </row>
-    <row r="240" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="80"/>
       <c r="B240" s="80" t="s">
         <v>631</v>
@@ -13648,7 +13649,7 @@
       <c r="P240" s="82"/>
       <c r="Q240" s="14"/>
     </row>
-    <row r="241" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="80"/>
       <c r="B241" s="80" t="s">
         <v>632</v>
@@ -13691,7 +13692,7 @@
       <c r="P241" s="82"/>
       <c r="Q241" s="14"/>
     </row>
-    <row r="242" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A242" s="80"/>
       <c r="B242" s="80" t="s">
         <v>634</v>
@@ -13732,7 +13733,7 @@
       <c r="P242" s="82"/>
       <c r="Q242" s="14"/>
     </row>
-    <row r="243" spans="1:17" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="80"/>
       <c r="B243" s="80" t="s">
         <v>635</v>
@@ -13773,7 +13774,7 @@
       <c r="P243" s="82"/>
       <c r="Q243" s="14"/>
     </row>
-    <row r="244" spans="1:17" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="80"/>
       <c r="B244" s="92" t="s">
         <v>619</v>
@@ -13812,7 +13813,7 @@
       <c r="P244" s="90"/>
       <c r="Q244" s="14"/>
     </row>
-    <row r="245" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A245" s="80"/>
       <c r="B245" s="80" t="s">
         <v>640</v>
@@ -13851,7 +13852,7 @@
       <c r="P245" s="82"/>
       <c r="Q245" s="14"/>
     </row>
-    <row r="246" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A246" s="80"/>
       <c r="B246" s="80" t="s">
         <v>642</v>
@@ -13890,7 +13891,7 @@
       <c r="P246" s="82"/>
       <c r="Q246" s="14"/>
     </row>
-    <row r="247" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="80"/>
       <c r="B247" s="80" t="s">
         <v>643</v>
@@ -13923,7 +13924,7 @@
       <c r="P247" s="82"/>
       <c r="Q247" s="14"/>
     </row>
-    <row r="248" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="80"/>
       <c r="B248" s="80" t="s">
         <v>645</v>
@@ -13956,7 +13957,7 @@
       <c r="P248" s="82"/>
       <c r="Q248" s="14"/>
     </row>
-    <row r="249" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="80"/>
       <c r="B249" s="80" t="s">
         <v>620</v>
@@ -13979,7 +13980,7 @@
       <c r="P249" s="15"/>
       <c r="Q249" s="14"/>
     </row>
-    <row r="250" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="80"/>
       <c r="B250" s="80" t="s">
         <v>621</v>
@@ -14004,7 +14005,7 @@
       <c r="P250" s="15"/>
       <c r="Q250" s="14"/>
     </row>
-    <row r="251" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -14035,7 +14036,7 @@
       <c r="P251" s="15"/>
       <c r="Q251" s="14"/>
     </row>
-    <row r="252" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="80" t="s">
         <v>811</v>
       </c>
@@ -14076,7 +14077,7 @@
       <c r="P252" s="29"/>
       <c r="Q252" s="14"/>
     </row>
-    <row r="253" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="80"/>
       <c r="B253" s="80" t="s">
         <v>654</v>
@@ -14115,7 +14116,7 @@
       <c r="P253" s="12"/>
       <c r="Q253" s="14"/>
     </row>
-    <row r="254" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="80"/>
       <c r="B254" s="80" t="s">
         <v>655</v>
@@ -14154,7 +14155,7 @@
       <c r="P254" s="12"/>
       <c r="Q254" s="14"/>
     </row>
-    <row r="255" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="80"/>
       <c r="B255" s="80" t="s">
         <v>656</v>
@@ -14195,7 +14196,7 @@
       <c r="P255" s="12"/>
       <c r="Q255" s="14"/>
     </row>
-    <row r="256" spans="1:17" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="80"/>
       <c r="B256" s="80" t="s">
         <v>657</v>
@@ -14234,7 +14235,7 @@
       <c r="P256" s="12"/>
       <c r="Q256" s="14"/>
     </row>
-    <row r="257" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="80"/>
       <c r="B257" s="80" t="s">
         <v>660</v>
@@ -14275,7 +14276,7 @@
       <c r="P257" s="12"/>
       <c r="Q257" s="14"/>
     </row>
-    <row r="258" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="80"/>
       <c r="B258" s="80" t="s">
         <v>662</v>
@@ -14314,7 +14315,7 @@
       <c r="P258" s="12"/>
       <c r="Q258" s="14"/>
     </row>
-    <row r="259" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A259" s="80"/>
       <c r="B259" s="80" t="s">
         <v>663</v>
@@ -14343,7 +14344,7 @@
       <c r="P259" s="12"/>
       <c r="Q259" s="14"/>
     </row>
-    <row r="260" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="80"/>
       <c r="B260" s="80" t="s">
         <v>664</v>
@@ -14384,7 +14385,7 @@
       <c r="P260" s="12"/>
       <c r="Q260" s="14"/>
     </row>
-    <row r="261" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A261" s="80"/>
       <c r="B261" s="80" t="s">
         <v>667</v>
@@ -14427,7 +14428,7 @@
       <c r="P261" s="12"/>
       <c r="Q261" s="14"/>
     </row>
-    <row r="262" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A262" s="80"/>
       <c r="B262" s="80" t="s">
         <v>668</v>
@@ -14468,7 +14469,7 @@
       <c r="P262" s="12"/>
       <c r="Q262" s="14"/>
     </row>
-    <row r="263" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="80"/>
       <c r="B263" s="80" t="s">
         <v>647</v>
@@ -14507,7 +14508,7 @@
       <c r="P263" s="12"/>
       <c r="Q263" s="14"/>
     </row>
-    <row r="264" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A264" s="80"/>
       <c r="B264" s="80" t="s">
         <v>651</v>
@@ -14546,7 +14547,7 @@
       <c r="P264" s="12"/>
       <c r="Q264" s="14"/>
     </row>
-    <row r="265" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A265" s="80"/>
       <c r="B265" s="80" t="s">
         <v>671</v>
@@ -14585,7 +14586,7 @@
       <c r="P265" s="12"/>
       <c r="Q265" s="14"/>
     </row>
-    <row r="266" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="80"/>
       <c r="B266" s="87" t="s">
         <v>650</v>
@@ -14618,7 +14619,7 @@
       <c r="P266" s="12"/>
       <c r="Q266" s="14"/>
     </row>
-    <row r="267" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H267" s="11"/>
       <c r="I267" s="80"/>
       <c r="J267" s="80" t="s">
@@ -14640,7 +14641,7 @@
       <c r="P267" s="12"/>
       <c r="Q267" s="14"/>
     </row>
-    <row r="268" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6"/>
       <c r="G268" s="6"/>
       <c r="H268" s="16"/>
@@ -14654,7 +14655,7 @@
       <c r="P268" s="15"/>
       <c r="Q268" s="14"/>
     </row>
-    <row r="269" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="80" t="s">
         <v>652</v>
       </c>
@@ -14687,7 +14688,7 @@
       <c r="P269" s="15"/>
       <c r="Q269" s="14"/>
     </row>
-    <row r="270" spans="1:17" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="80"/>
       <c r="B270" s="80" t="s">
         <v>646</v>
@@ -14728,7 +14729,7 @@
       <c r="P270" s="15"/>
       <c r="Q270" s="14"/>
     </row>
-    <row r="271" spans="1:17" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="80"/>
       <c r="B271" s="80" t="s">
         <v>648</v>
@@ -14767,7 +14768,7 @@
       <c r="P271" s="15"/>
       <c r="Q271" s="14"/>
     </row>
-    <row r="272" spans="1:17" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="80"/>
       <c r="B272" s="80" t="s">
         <v>649</v>
@@ -14804,7 +14805,7 @@
       <c r="P272" s="15"/>
       <c r="Q272" s="14"/>
     </row>
-    <row r="273" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="80"/>
       <c r="B273" s="80" t="s">
         <v>809</v>
@@ -14843,7 +14844,7 @@
       <c r="P273" s="15"/>
       <c r="Q273" s="14"/>
     </row>
-    <row r="274" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="80"/>
       <c r="B274" s="80" t="s">
         <v>810</v>
@@ -14882,7 +14883,7 @@
       <c r="P274" s="12"/>
       <c r="Q274" s="14"/>
     </row>
-    <row r="275" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="G275" s="5"/>
       <c r="H275" s="11"/>
@@ -14906,7 +14907,7 @@
       <c r="P275" s="12"/>
       <c r="Q275" s="14"/>
     </row>
-    <row r="276" spans="1:17" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="80" t="s">
         <v>812</v>
       </c>
@@ -14948,7 +14949,7 @@
       <c r="P276" s="12"/>
       <c r="Q276" s="14"/>
     </row>
-    <row r="277" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="80"/>
       <c r="B277" s="80" t="s">
         <v>814</v>
@@ -14986,7 +14987,7 @@
       <c r="P277" s="12"/>
       <c r="Q277" s="14"/>
     </row>
-    <row r="278" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="80"/>
       <c r="B278" s="80" t="s">
         <v>817</v>
@@ -15024,7 +15025,7 @@
       <c r="P278" s="12"/>
       <c r="Q278" s="14"/>
     </row>
-    <row r="279" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="80"/>
       <c r="B279" s="80" t="s">
         <v>819</v>
@@ -15052,7 +15053,7 @@
       <c r="P279" s="12"/>
       <c r="Q279" s="14"/>
     </row>
-    <row r="280" spans="1:17" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="80"/>
       <c r="B280" s="80" t="s">
         <v>821</v>
@@ -15082,7 +15083,7 @@
       <c r="P280" s="12"/>
       <c r="Q280" s="14"/>
     </row>
-    <row r="281" spans="1:17" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="80"/>
       <c r="B281" s="80" t="s">
         <v>822</v>
@@ -15124,7 +15125,7 @@
       <c r="P281" s="16"/>
       <c r="Q281" s="14"/>
     </row>
-    <row r="282" spans="1:17" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="80"/>
       <c r="B282" s="80" t="s">
         <v>824</v>
@@ -15164,7 +15165,7 @@
       <c r="P282" s="16"/>
       <c r="Q282" s="14"/>
     </row>
-    <row r="283" spans="1:17" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:17" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="80"/>
       <c r="B283" s="80" t="s">
         <v>826</v>
@@ -15202,7 +15203,7 @@
       <c r="P283" s="11"/>
       <c r="Q283" s="14"/>
     </row>
-    <row r="284" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="80"/>
       <c r="B284" s="80" t="s">
         <v>827</v>
@@ -15240,7 +15241,7 @@
       <c r="P284" s="11"/>
       <c r="Q284" s="14"/>
     </row>
-    <row r="285" spans="1:17" ht="12.2" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:17" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="80"/>
       <c r="B285" s="80" t="s">
         <v>830</v>
@@ -15278,7 +15279,7 @@
       <c r="P285" s="11"/>
       <c r="Q285" s="14"/>
     </row>
-    <row r="286" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A286" s="80"/>
       <c r="B286" s="80" t="s">
         <v>831</v>
@@ -15316,7 +15317,7 @@
       <c r="P286" s="11"/>
       <c r="Q286" s="17"/>
     </row>
-    <row r="287" spans="1:17" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:17" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A287" s="6"/>
       <c r="B287" s="95"/>
       <c r="C287" s="6"/>
@@ -15334,7 +15335,7 @@
       <c r="P287" s="11"/>
       <c r="Q287" s="17"/>
     </row>
-    <row r="288" spans="1:17" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="80" t="s">
         <v>832</v>
       </c>
@@ -15356,7 +15357,7 @@
       <c r="P288" s="11"/>
       <c r="Q288" s="17"/>
     </row>
-    <row r="289" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="80" t="s">
         <v>1</v>
       </c>
@@ -15400,7 +15401,7 @@
       <c r="P289" s="16"/>
       <c r="Q289" s="14"/>
     </row>
-    <row r="290" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A290" s="80" t="s">
         <v>834</v>
       </c>
@@ -15442,7 +15443,7 @@
       <c r="P290" s="11"/>
       <c r="Q290" s="14"/>
     </row>
-    <row r="291" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A291" s="80"/>
       <c r="B291" s="80" t="s">
         <v>837</v>
@@ -15481,7 +15482,7 @@
       <c r="Q291" s="19"/>
       <c r="R291" s="4"/>
     </row>
-    <row r="292" spans="1:18" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="80"/>
       <c r="B292" s="80" t="s">
         <v>839</v>
@@ -15520,7 +15521,7 @@
       <c r="Q292" s="19"/>
       <c r="R292" s="3"/>
     </row>
-    <row r="293" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A293" s="80"/>
       <c r="B293" s="80" t="s">
         <v>841</v>
@@ -15553,7 +15554,7 @@
       <c r="Q293" s="19"/>
       <c r="R293" s="3"/>
     </row>
-    <row r="294" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="80"/>
       <c r="B294" s="80" t="s">
         <v>842</v>
@@ -15586,7 +15587,7 @@
       <c r="Q294" s="19"/>
       <c r="R294" s="4"/>
     </row>
-    <row r="295" spans="1:18" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="80"/>
       <c r="B295" s="80" t="s">
         <v>844</v>
@@ -15608,7 +15609,7 @@
       <c r="Q295" s="19"/>
       <c r="R295" s="3"/>
     </row>
-    <row r="296" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="80"/>
       <c r="B296" s="80" t="s">
         <v>846</v>
@@ -15639,7 +15640,7 @@
       <c r="Q296" s="19"/>
       <c r="R296" s="3"/>
     </row>
-    <row r="297" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I297" s="99" t="s">
         <v>874</v>
       </c>
@@ -15662,7 +15663,7 @@
       <c r="Q297" s="19"/>
       <c r="R297" s="4"/>
     </row>
-    <row r="298" spans="1:18" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="87" t="s">
         <v>848</v>
       </c>
@@ -15702,7 +15703,7 @@
       <c r="Q298" s="19"/>
       <c r="R298" s="4"/>
     </row>
-    <row r="299" spans="1:18" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="87"/>
       <c r="B299" s="87" t="s">
         <v>850</v>
@@ -15738,7 +15739,7 @@
       <c r="Q299" s="19"/>
       <c r="R299" s="3"/>
     </row>
-    <row r="300" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="87"/>
       <c r="B300" s="87" t="s">
         <v>851</v>
@@ -15774,7 +15775,7 @@
       <c r="Q300" s="19"/>
       <c r="R300" s="4"/>
     </row>
-    <row r="301" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A301" s="87"/>
       <c r="B301" s="87" t="s">
         <v>852</v>
@@ -15810,7 +15811,7 @@
       <c r="Q301" s="19"/>
       <c r="R301" s="3"/>
     </row>
-    <row r="302" spans="1:18" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="87"/>
       <c r="B302" s="87" t="s">
         <v>853</v>
@@ -15848,7 +15849,7 @@
       <c r="Q302" s="19"/>
       <c r="R302" s="4"/>
     </row>
-    <row r="303" spans="1:18" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="87"/>
       <c r="B303" s="87" t="s">
         <v>854</v>
@@ -15884,7 +15885,7 @@
       <c r="Q303" s="19"/>
       <c r="R303" s="3"/>
     </row>
-    <row r="304" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="87"/>
       <c r="B304" s="87" t="s">
         <v>855</v>
@@ -15920,7 +15921,7 @@
       <c r="Q304" s="19"/>
       <c r="R304" s="4"/>
     </row>
-    <row r="305" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="87"/>
       <c r="B305" s="87" t="s">
         <v>856</v>
@@ -15956,7 +15957,7 @@
       <c r="Q305" s="19"/>
       <c r="R305" s="4"/>
     </row>
-    <row r="306" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="87"/>
       <c r="B306" s="87" t="s">
         <v>857</v>
@@ -15992,7 +15993,7 @@
       <c r="Q306" s="19"/>
       <c r="R306" s="4"/>
     </row>
-    <row r="307" spans="1:18" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="87"/>
       <c r="B307" s="87" t="s">
         <v>858</v>
@@ -16028,7 +16029,7 @@
       <c r="Q307" s="19"/>
       <c r="R307" s="3"/>
     </row>
-    <row r="308" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="87"/>
       <c r="B308" s="87" t="s">
         <v>859</v>
@@ -16064,7 +16065,7 @@
       <c r="Q308" s="17"/>
       <c r="R308" s="4"/>
     </row>
-    <row r="309" spans="1:18" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="87"/>
       <c r="B309" s="87" t="s">
         <v>860</v>
@@ -16100,7 +16101,7 @@
       <c r="Q309" s="17"/>
       <c r="R309" s="3"/>
     </row>
-    <row r="310" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="87"/>
       <c r="B310" s="87" t="s">
         <v>861</v>
@@ -16136,7 +16137,7 @@
       <c r="Q310" s="17"/>
       <c r="R310" s="4"/>
     </row>
-    <row r="311" spans="1:18" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="87"/>
       <c r="B311" s="87" t="s">
         <v>862</v>
@@ -16162,7 +16163,7 @@
       <c r="Q311" s="17"/>
       <c r="R311" s="4"/>
     </row>
-    <row r="312" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I312" s="80" t="s">
         <v>894</v>
       </c>
@@ -16181,7 +16182,7 @@
       <c r="Q312" s="17"/>
       <c r="R312" s="4"/>
     </row>
-    <row r="313" spans="1:18" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="80" t="s">
         <v>864</v>
       </c>
@@ -16219,7 +16220,7 @@
       <c r="Q313" s="17"/>
       <c r="R313" s="3"/>
     </row>
-    <row r="314" spans="1:18" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="80"/>
       <c r="B314" s="80" t="s">
         <v>866</v>
@@ -16257,7 +16258,7 @@
       <c r="Q314" s="17"/>
       <c r="R314" s="3"/>
     </row>
-    <row r="315" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="80"/>
       <c r="B315" s="80" t="s">
         <v>867</v>
@@ -16295,7 +16296,7 @@
       <c r="Q315" s="17"/>
       <c r="R315" s="4"/>
     </row>
-    <row r="316" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="80"/>
       <c r="B316" s="80" t="s">
         <v>868</v>
@@ -16333,7 +16334,7 @@
       <c r="Q316" s="17"/>
       <c r="R316" s="4"/>
     </row>
-    <row r="317" spans="1:18" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="80"/>
       <c r="B317" s="80" t="s">
         <v>869</v>
@@ -16371,7 +16372,7 @@
       <c r="Q317" s="17"/>
       <c r="R317" s="4"/>
     </row>
-    <row r="318" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="80"/>
       <c r="B318" s="80" t="s">
         <v>870</v>
@@ -16409,7 +16410,7 @@
       <c r="Q318" s="17"/>
       <c r="R318" s="4"/>
     </row>
-    <row r="319" spans="1:18" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="80"/>
       <c r="B319" s="80" t="s">
         <v>871</v>
@@ -16441,7 +16442,7 @@
       <c r="Q319" s="17"/>
       <c r="R319" s="3"/>
     </row>
-    <row r="320" spans="1:18" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="80"/>
       <c r="B320" s="80" t="s">
         <v>872</v>
@@ -16473,11 +16474,11 @@
       <c r="Q320" s="17"/>
       <c r="R320" s="2"/>
     </row>
-    <row r="321" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q321" s="17"/>
       <c r="R321" s="4"/>
     </row>
-    <row r="322" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="80" t="s">
         <v>926</v>
       </c>
@@ -16521,7 +16522,7 @@
       <c r="Q322" s="17"/>
       <c r="R322" s="30"/>
     </row>
-    <row r="323" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="80"/>
       <c r="B323" s="80" t="s">
         <v>928</v>
@@ -16542,7 +16543,7 @@
       <c r="Q323" s="17"/>
       <c r="R323" s="31"/>
     </row>
-    <row r="324" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="80"/>
       <c r="B324" s="80" t="s">
         <v>929</v>
@@ -16572,7 +16573,7 @@
       <c r="Q324" s="17"/>
       <c r="R324" s="30"/>
     </row>
-    <row r="325" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="80"/>
       <c r="B325" s="80" t="s">
         <v>930</v>
@@ -16612,7 +16613,7 @@
       <c r="Q325" s="17"/>
       <c r="R325" s="30"/>
     </row>
-    <row r="326" spans="1:18" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="80"/>
       <c r="B326" s="80" t="s">
         <v>931</v>
@@ -16652,7 +16653,7 @@
       <c r="Q326" s="17"/>
       <c r="R326" s="32"/>
     </row>
-    <row r="327" spans="1:18" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="107"/>
       <c r="B327" s="107"/>
       <c r="C327" s="107"/>
@@ -16670,7 +16671,7 @@
       <c r="Q327" s="17"/>
       <c r="R327" s="32"/>
     </row>
-    <row r="328" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="80" t="s">
         <v>932</v>
       </c>
@@ -16700,7 +16701,7 @@
       <c r="Q328" s="17"/>
       <c r="R328" s="30"/>
     </row>
-    <row r="329" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="80"/>
       <c r="B329" s="80" t="s">
         <v>935</v>
@@ -16740,7 +16741,7 @@
       <c r="Q329" s="17"/>
       <c r="R329" s="30"/>
     </row>
-    <row r="330" spans="1:18" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="80"/>
       <c r="B330" s="80" t="s">
         <v>938</v>
@@ -16778,7 +16779,7 @@
       <c r="Q330" s="17"/>
       <c r="R330" s="30"/>
     </row>
-    <row r="331" spans="1:18" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="80"/>
       <c r="B331" s="80" t="s">
         <v>932</v>
@@ -16799,7 +16800,7 @@
       <c r="Q331" s="17"/>
       <c r="R331" s="32"/>
     </row>
-    <row r="332" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="80"/>
       <c r="B332" s="80" t="s">
         <v>939</v>
@@ -16829,7 +16830,7 @@
       <c r="Q332" s="17"/>
       <c r="R332" s="1"/>
     </row>
-    <row r="333" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I333" s="105" t="s">
         <v>919</v>
       </c>
@@ -16850,7 +16851,7 @@
       <c r="Q333" s="17"/>
       <c r="R333" s="33"/>
     </row>
-    <row r="334" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="87"/>
       <c r="B334" s="81"/>
       <c r="C334" s="80"/>
@@ -16880,7 +16881,7 @@
       <c r="Q334" s="18"/>
       <c r="R334" s="33"/>
     </row>
-    <row r="335" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="80" t="s">
         <v>954</v>
       </c>
@@ -16922,7 +16923,7 @@
       <c r="Q335" s="18"/>
       <c r="R335" s="33"/>
     </row>
-    <row r="336" spans="1:18" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="80" t="s">
         <v>955</v>
       </c>
@@ -16962,7 +16963,7 @@
       <c r="Q336" s="18"/>
       <c r="R336" s="33"/>
     </row>
-    <row r="337" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="80"/>
       <c r="B337" s="80" t="s">
         <v>958</v>
@@ -17000,7 +17001,7 @@
       <c r="Q337" s="18"/>
       <c r="R337" s="33"/>
     </row>
-    <row r="338" spans="1:18" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="80"/>
       <c r="B338" s="80" t="s">
         <v>959</v>
@@ -17038,7 +17039,7 @@
       <c r="Q338" s="18"/>
       <c r="R338" s="33"/>
     </row>
-    <row r="339" spans="1:18" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="80"/>
       <c r="B339" s="80" t="s">
         <v>940</v>
@@ -17070,7 +17071,7 @@
       <c r="Q339" s="18"/>
       <c r="R339" s="33"/>
     </row>
-    <row r="340" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="80"/>
       <c r="B340" s="80" t="s">
         <v>942</v>
@@ -17102,7 +17103,7 @@
       <c r="Q340" s="18"/>
       <c r="R340" s="33"/>
     </row>
-    <row r="341" spans="1:18" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="80"/>
       <c r="B341" s="80" t="s">
         <v>943</v>
@@ -17123,7 +17124,7 @@
       <c r="Q341" s="18"/>
       <c r="R341" s="33"/>
     </row>
-    <row r="342" spans="1:18" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="80"/>
       <c r="B342" s="80" t="s">
         <v>945</v>
@@ -17147,7 +17148,7 @@
       <c r="Q342" s="18"/>
       <c r="R342" s="33"/>
     </row>
-    <row r="343" spans="1:18" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="97"/>
       <c r="B343" s="97"/>
       <c r="C343" s="97"/>
@@ -17177,7 +17178,7 @@
       <c r="Q343" s="18"/>
       <c r="R343" s="33"/>
     </row>
-    <row r="344" spans="1:18" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:18" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="80" t="s">
         <v>946</v>
       </c>
@@ -17217,7 +17218,7 @@
       <c r="Q344" s="18"/>
       <c r="R344" s="33"/>
     </row>
-    <row r="345" spans="1:18" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="80"/>
       <c r="B345" s="80" t="s">
         <v>949</v>
@@ -17255,7 +17256,7 @@
       <c r="Q345" s="18"/>
       <c r="R345" s="33"/>
     </row>
-    <row r="346" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A346" s="80"/>
       <c r="B346" s="80" t="s">
         <v>950</v>
@@ -17293,7 +17294,7 @@
       <c r="Q346" s="18"/>
       <c r="R346" s="33"/>
     </row>
-    <row r="347" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A347" s="80"/>
       <c r="B347" s="80" t="s">
         <v>951</v>
@@ -17331,7 +17332,7 @@
       <c r="Q347" s="18"/>
       <c r="R347" s="33"/>
     </row>
-    <row r="348" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="80"/>
       <c r="B348" s="80" t="s">
         <v>952</v>
@@ -17369,7 +17370,7 @@
       <c r="Q348" s="18"/>
       <c r="R348" s="33"/>
     </row>
-    <row r="349" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I349" s="87"/>
       <c r="J349" s="105" t="s">
         <v>967</v>
@@ -17390,7 +17391,7 @@
       <c r="Q349" s="18"/>
       <c r="R349" s="33"/>
     </row>
-    <row r="350" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="105" t="s">
         <v>978</v>
       </c>
@@ -17424,7 +17425,7 @@
       <c r="Q350" s="18"/>
       <c r="R350" s="33"/>
     </row>
-    <row r="351" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A351" s="87"/>
       <c r="B351" s="105" t="s">
         <v>980</v>
@@ -17445,7 +17446,7 @@
       <c r="Q351" s="18"/>
       <c r="R351" s="33"/>
     </row>
-    <row r="352" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="I352" s="105" t="s">
         <v>970</v>
       </c>
@@ -17470,7 +17471,7 @@
       <c r="Q352" s="18"/>
       <c r="R352" s="33"/>
     </row>
-    <row r="353" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A353" s="105" t="s">
         <v>981</v>
       </c>
@@ -17500,7 +17501,7 @@
       <c r="Q353" s="18"/>
       <c r="R353" s="33"/>
     </row>
-    <row r="354" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A354" s="105" t="s">
         <v>982</v>
       </c>
@@ -17542,7 +17543,7 @@
       <c r="Q354" s="18"/>
       <c r="R354" s="33"/>
     </row>
-    <row r="355" spans="1:18" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="87"/>
       <c r="B355" s="105" t="s">
         <v>983</v>
@@ -17580,7 +17581,7 @@
       <c r="Q355" s="18"/>
       <c r="R355" s="33"/>
     </row>
-    <row r="356" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="I356" s="87"/>
       <c r="J356" s="105" t="s">
         <v>975</v>
@@ -17601,7 +17602,7 @@
       <c r="Q356" s="18"/>
       <c r="R356" s="33"/>
     </row>
-    <row r="357" spans="1:18" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="105" t="s">
         <v>795</v>
       </c>
@@ -17631,7 +17632,7 @@
       <c r="Q357" s="18"/>
       <c r="R357" s="33"/>
     </row>
-    <row r="358" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="105" t="s">
         <v>986</v>
       </c>
@@ -17663,7 +17664,7 @@
       <c r="Q358" s="18"/>
       <c r="R358" s="33"/>
     </row>
-    <row r="359" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="87"/>
       <c r="B359" s="105" t="s">
         <v>773</v>
@@ -17682,7 +17683,7 @@
       <c r="Q359" s="18"/>
       <c r="R359" s="33"/>
     </row>
-    <row r="360" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="87"/>
       <c r="B360" s="105" t="s">
         <v>987</v>
@@ -17720,7 +17721,7 @@
       <c r="Q360" s="18"/>
       <c r="R360" s="33"/>
     </row>
-    <row r="361" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="87"/>
       <c r="B361" s="105" t="s">
         <v>986</v>
@@ -17754,7 +17755,7 @@
       <c r="Q361" s="18"/>
       <c r="R361" s="33"/>
     </row>
-    <row r="362" spans="1:18" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:18" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="87"/>
       <c r="B362" s="105" t="s">
         <v>988</v>
@@ -17788,7 +17789,7 @@
       <c r="Q362" s="18"/>
       <c r="R362" s="33"/>
     </row>
-    <row r="363" spans="1:18" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="87"/>
       <c r="B363" s="105" t="s">
         <v>989</v>
@@ -17807,7 +17808,7 @@
       <c r="Q363" s="18"/>
       <c r="R363" s="33"/>
     </row>
-    <row r="364" spans="1:18" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="87"/>
       <c r="B364" s="105" t="s">
         <v>990</v>
@@ -17843,7 +17844,7 @@
       <c r="Q364" s="18"/>
       <c r="R364" s="33"/>
     </row>
-    <row r="365" spans="1:18" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:18" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I365" s="105" t="s">
         <v>1001</v>
       </c>
@@ -17864,7 +17865,7 @@
       <c r="Q365" s="18"/>
       <c r="R365" s="33"/>
     </row>
-    <row r="366" spans="1:18" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="105" t="s">
         <v>992</v>
       </c>
@@ -17900,7 +17901,7 @@
       <c r="Q366" s="18"/>
       <c r="R366" s="33"/>
     </row>
-    <row r="367" spans="1:18" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="105" t="s">
         <v>995</v>
       </c>
@@ -17936,7 +17937,7 @@
       <c r="Q367" s="18"/>
       <c r="R367" s="33"/>
     </row>
-    <row r="368" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I368" s="87"/>
       <c r="J368" s="105" t="s">
         <v>1004</v>
@@ -17955,7 +17956,7 @@
       <c r="Q368" s="18"/>
       <c r="R368" s="33"/>
     </row>
-    <row r="369" spans="1:18" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="105" t="s">
         <v>1030</v>
       </c>
@@ -17991,7 +17992,7 @@
       <c r="Q369" s="18"/>
       <c r="R369" s="33"/>
     </row>
-    <row r="370" spans="1:18" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="87"/>
       <c r="B370" s="105" t="s">
         <v>1032</v>
@@ -18010,7 +18011,7 @@
       <c r="Q370" s="18"/>
       <c r="R370" s="33"/>
     </row>
-    <row r="371" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="87"/>
       <c r="B371" s="105" t="s">
         <v>1033</v>
@@ -18046,7 +18047,7 @@
       <c r="Q371" s="18"/>
       <c r="R371" s="33"/>
     </row>
-    <row r="372" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="87"/>
       <c r="B372" s="105" t="s">
         <v>1034</v>
@@ -18080,7 +18081,7 @@
       <c r="Q372" s="18"/>
       <c r="R372" s="33"/>
     </row>
-    <row r="373" spans="1:18" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:18" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="87"/>
       <c r="B373" s="105" t="s">
         <v>1035</v>
@@ -18114,7 +18115,7 @@
       <c r="Q373" s="18"/>
       <c r="R373" s="33"/>
     </row>
-    <row r="374" spans="1:18" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:18" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="87"/>
       <c r="B374" s="105" t="s">
         <v>1036</v>
@@ -18148,7 +18149,7 @@
       <c r="Q374" s="18"/>
       <c r="R374" s="33"/>
     </row>
-    <row r="375" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="87"/>
       <c r="B375" s="105" t="s">
         <v>1037</v>
@@ -18167,7 +18168,7 @@
       <c r="Q375" s="18"/>
       <c r="R375" s="33"/>
     </row>
-    <row r="376" spans="1:18" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="87"/>
       <c r="B376" s="105" t="s">
         <v>1038</v>
@@ -18195,7 +18196,7 @@
       <c r="Q376" s="18"/>
       <c r="R376" s="33"/>
     </row>
-    <row r="377" spans="1:18" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:18" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I377" s="80" t="s">
         <v>1013</v>
       </c>
@@ -18220,7 +18221,7 @@
       <c r="Q377" s="18"/>
       <c r="R377" s="33"/>
     </row>
-    <row r="378" spans="1:18" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="105" t="s">
         <v>1039</v>
       </c>
@@ -18260,7 +18261,7 @@
       <c r="Q378" s="18"/>
       <c r="R378" s="33"/>
     </row>
-    <row r="379" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="87"/>
       <c r="B379" s="105" t="s">
         <v>1041</v>
@@ -18298,7 +18299,7 @@
       <c r="Q379" s="18"/>
       <c r="R379" s="33"/>
     </row>
-    <row r="380" spans="1:18" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:18" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="87"/>
       <c r="B380" s="105" t="s">
         <v>1042</v>
@@ -18336,7 +18337,7 @@
       <c r="Q380" s="18"/>
       <c r="R380" s="33"/>
     </row>
-    <row r="381" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="87"/>
       <c r="B381" s="105" t="s">
         <v>1043</v>
@@ -18372,7 +18373,7 @@
       <c r="Q381" s="18"/>
       <c r="R381" s="33"/>
     </row>
-    <row r="382" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="87"/>
       <c r="B382" s="105" t="s">
         <v>1044</v>
@@ -18410,7 +18411,7 @@
       <c r="Q382" s="18"/>
       <c r="R382" s="33"/>
     </row>
-    <row r="383" spans="1:18" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="87"/>
       <c r="B383" s="105" t="s">
         <v>1045</v>
@@ -18446,7 +18447,7 @@
       <c r="Q383" s="18"/>
       <c r="R383" s="33"/>
     </row>
-    <row r="384" spans="1:18" ht="12.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="87"/>
       <c r="B384" s="105" t="s">
         <v>1046</v>
@@ -18482,7 +18483,7 @@
       <c r="Q384" s="18"/>
       <c r="R384" s="33"/>
     </row>
-    <row r="385" spans="1:18" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="87"/>
       <c r="B385" s="105" t="s">
         <v>1047</v>
@@ -18518,7 +18519,7 @@
       <c r="Q385" s="18"/>
       <c r="R385" s="33"/>
     </row>
-    <row r="386" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A386" s="87"/>
       <c r="B386" s="105" t="s">
         <v>1048</v>
@@ -18554,7 +18555,7 @@
       <c r="Q386" s="18"/>
       <c r="R386" s="33"/>
     </row>
-    <row r="387" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A387" s="87"/>
       <c r="B387" s="105" t="s">
         <v>1049</v>
@@ -18590,7 +18591,7 @@
       <c r="Q387" s="18"/>
       <c r="R387" s="33"/>
     </row>
-    <row r="388" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A388" s="87"/>
       <c r="B388" s="105" t="s">
         <v>1050</v>
@@ -18625,7 +18626,7 @@
       <c r="O388" s="81"/>
       <c r="Q388" s="14"/>
     </row>
-    <row r="389" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A389" s="87"/>
       <c r="B389" s="105" t="s">
         <v>1051</v>
@@ -18660,7 +18661,7 @@
       <c r="O389" s="81"/>
       <c r="Q389" s="14"/>
     </row>
-    <row r="390" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A390" s="87"/>
       <c r="B390" s="105" t="s">
         <v>1052</v>
@@ -18695,7 +18696,7 @@
       <c r="O390" s="87"/>
       <c r="Q390" s="14"/>
     </row>
-    <row r="391" spans="1:18" ht="13.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:18" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A391" s="87"/>
       <c r="B391" s="105" t="s">
         <v>1053</v>
@@ -18981,13 +18982,6 @@
       <c r="O401" s="81"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O391" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="10/03_x000a_10/04"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
